--- a/TableIO.ClosedXml.Tests/files/Read.xlsx
+++ b/TableIO.ClosedXml.Tests/files/Read.xlsx
@@ -121,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.4" x14ac:dyDescent="0.95"/>
